--- a/biology/Histoire de la zoologie et de la botanique/Michael_Bigg/Michael_Bigg.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Michael_Bigg/Michael_Bigg.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Michael Bigg, né le 22 décembre 1939 à Londres et mort le 18 octobre 1990 à Duncan, est un biologiste marin canadien spécialiste des cétacés et plus particulièrement des orques.
 Il est principalement connu pour avoir codéveloppé une technique de reconnaissance des orques basée sur les nageoires dorsales. Cette technique a révolutionné la cétologie en permettant d'avoir des analyses des trajets et des relations sociales des animaux en liberté. Il a également mené le premier recensement de la population d'orques.
@@ -512,7 +524,9 @@
           <t>Lien  externe</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Notices d'autorité : VIAF ISNI LCCN Pays-Bas Norvège WorldCat 
  Portail des cétacés   Portail de l’histoire de la zoologie et de la botanique   Portail du Canada                   
